--- a/calculation-engine/engine-core-demo/src/main/resources/excel/define-funcexec/index/define.xlsx
+++ b/calculation-engine/engine-core-demo/src/main/resources/excel/define-funcexec/index/define.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="21570" windowHeight="10785"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="21570" windowHeight="10785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Input 1</t>
   </si>
@@ -62,13 +62,31 @@
     <t>=FUNCEXEC("DEVDEF_1";A2;B2)</t>
   </si>
   <si>
-    <t>=DEFINE("DEVDEF_2";A2;"#";A7)</t>
-  </si>
-  <si>
-    <t>=DEFINE("DEVDEF_1"; A2;B2;"#";A7)</t>
-  </si>
-  <si>
     <t>Output 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =F8 + 2</t>
+  </si>
+  <si>
+    <t>=DEFINE("DEVDEF_1"; A2;B2;"#";F6, F7)</t>
+  </si>
+  <si>
+    <t>=DEFINE("DEVDEF_2";A2;"#";F6)</t>
+  </si>
+  <si>
+    <t>Funcexec [2]</t>
+  </si>
+  <si>
+    <t>Funcexec [1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =INDEX(FUNCEXEC("DEVDEF_1";A2;B2),1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =INDEX(FUNCEXEC("DEVDEF_1";A2;B2),2)</t>
   </si>
 </sst>
 </file>
@@ -416,15 +434,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -480,7 +498,9 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -491,9 +511,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -507,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -522,7 +544,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -548,8 +570,26 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" t="e">
         <f ca="1">INDEX(FUNCEXEC("DEVDEF_1",A2,B2),2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="e">
+        <f ca="1">INDEX(FUNCEXEC("DEVDEF_1",A2,B2),1)</f>
         <v>#NAME?</v>
       </c>
     </row>
